--- a/Oaky Creek Coal Mine, Australia, M0085.xlsx
+++ b/Oaky Creek Coal Mine, Australia, M0085.xlsx
@@ -432,7 +432,7 @@
     <row r="2" ht="15.75" customHeight="1" s="12">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Version: mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>Version: mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="H2" s="2" t="n"/>
@@ -538,7 +538,7 @@
     <row r="6" ht="15.75" customHeight="1" s="12">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Oaky Creek Coal Mine, Australia, M0085, version 'mines - January 30 (built on January 30 2026 16.19.47 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
+          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Oaky Creek Coal Mine, Australia, M0085, version 'mines - January 30 (built on February 02 2026 12.49.33 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
         </is>
       </c>
       <c r="H6" s="2" t="n"/>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="S2" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T2" s="0" t="inlineStr">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="S3" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T3" s="0" t="inlineStr">
@@ -2456,7 +2456,7 @@
       </c>
       <c r="S4" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T4" s="0" t="inlineStr">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="S5" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T5" s="0" t="inlineStr">
@@ -2640,7 +2640,7 @@
       </c>
       <c r="S6" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T6" s="0" t="inlineStr">
@@ -2732,7 +2732,7 @@
       </c>
       <c r="S7" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T7" s="0" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="S8" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T8" s="0" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="S9" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T9" s="0" t="inlineStr">
@@ -3008,7 +3008,7 @@
       </c>
       <c r="S10" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T10" s="0" t="inlineStr">
@@ -3100,7 +3100,7 @@
       </c>
       <c r="S11" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T11" s="0" t="inlineStr">
@@ -3192,7 +3192,7 @@
       </c>
       <c r="S12" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T12" s="0" t="inlineStr">
@@ -3284,7 +3284,7 @@
       </c>
       <c r="S13" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T13" s="0" t="inlineStr">
@@ -3376,7 +3376,7 @@
       </c>
       <c r="S14" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T14" s="0" t="inlineStr">
@@ -3468,7 +3468,7 @@
       </c>
       <c r="S15" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T15" s="0" t="inlineStr">
@@ -3560,7 +3560,7 @@
       </c>
       <c r="S16" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T16" s="0" t="inlineStr">
@@ -3652,7 +3652,7 @@
       </c>
       <c r="S17" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T17" s="0" t="inlineStr">
@@ -3744,7 +3744,7 @@
       </c>
       <c r="S18" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T18" s="0" t="inlineStr">
@@ -3836,7 +3836,7 @@
       </c>
       <c r="S19" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T19" s="0" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="S20" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T20" s="0" t="inlineStr">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="S21" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T21" s="0" t="inlineStr">
@@ -4112,7 +4112,7 @@
       </c>
       <c r="S22" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T22" s="0" t="inlineStr">
@@ -4204,7 +4204,7 @@
       </c>
       <c r="S23" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T23" s="0" t="inlineStr">
@@ -4296,7 +4296,7 @@
       </c>
       <c r="S24" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T24" s="0" t="inlineStr">
@@ -4388,7 +4388,7 @@
       </c>
       <c r="S25" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T25" s="0" t="inlineStr">
@@ -4480,7 +4480,7 @@
       </c>
       <c r="S26" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T26" s="0" t="inlineStr">
@@ -4572,7 +4572,7 @@
       </c>
       <c r="S27" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T27" s="0" t="inlineStr">
@@ -4664,7 +4664,7 @@
       </c>
       <c r="S28" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T28" s="0" t="inlineStr">
@@ -4756,7 +4756,7 @@
       </c>
       <c r="S29" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T29" s="0" t="inlineStr">
@@ -4848,7 +4848,7 @@
       </c>
       <c r="S30" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T30" s="0" t="inlineStr">
@@ -4940,7 +4940,7 @@
       </c>
       <c r="S31" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T31" s="0" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="S32" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T32" s="0" t="inlineStr">
@@ -5124,7 +5124,7 @@
       </c>
       <c r="S33" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T33" s="0" t="inlineStr">
@@ -5216,7 +5216,7 @@
       </c>
       <c r="S34" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T34" s="0" t="inlineStr">
@@ -5308,7 +5308,7 @@
       </c>
       <c r="S35" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T35" s="0" t="inlineStr">
@@ -5400,7 +5400,7 @@
       </c>
       <c r="S36" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T36" s="0" t="inlineStr">
@@ -5492,7 +5492,7 @@
       </c>
       <c r="S37" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T37" s="0" t="inlineStr">
@@ -5584,7 +5584,7 @@
       </c>
       <c r="S38" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T38" s="0" t="inlineStr">
@@ -5676,7 +5676,7 @@
       </c>
       <c r="S39" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T39" s="0" t="inlineStr">
@@ -5768,7 +5768,7 @@
       </c>
       <c r="S40" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T40" s="0" t="inlineStr">
@@ -5860,7 +5860,7 @@
       </c>
       <c r="S41" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T41" s="0" t="inlineStr">
@@ -5952,7 +5952,7 @@
       </c>
       <c r="S42" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T42" s="0" t="inlineStr">
@@ -6044,7 +6044,7 @@
       </c>
       <c r="S43" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T43" s="0" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="S44" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T44" s="0" t="inlineStr">
@@ -6228,7 +6228,7 @@
       </c>
       <c r="S45" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T45" s="0" t="inlineStr">
@@ -6320,7 +6320,7 @@
       </c>
       <c r="S46" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T46" s="0" t="inlineStr">
@@ -6412,7 +6412,7 @@
       </c>
       <c r="S47" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T47" s="0" t="inlineStr">
@@ -6504,7 +6504,7 @@
       </c>
       <c r="S48" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T48" s="0" t="inlineStr">
@@ -6596,7 +6596,7 @@
       </c>
       <c r="S49" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T49" s="0" t="inlineStr">
@@ -6688,7 +6688,7 @@
       </c>
       <c r="S50" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T50" s="0" t="inlineStr">
@@ -6780,7 +6780,7 @@
       </c>
       <c r="S51" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T51" s="0" t="inlineStr">
@@ -6872,7 +6872,7 @@
       </c>
       <c r="S52" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T52" s="0" t="inlineStr">
@@ -6964,7 +6964,7 @@
       </c>
       <c r="S53" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T53" s="0" t="inlineStr">
@@ -7056,7 +7056,7 @@
       </c>
       <c r="S54" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T54" s="0" t="inlineStr">
@@ -7148,7 +7148,7 @@
       </c>
       <c r="S55" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T55" s="0" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="S56" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T56" s="0" t="inlineStr">
@@ -7332,7 +7332,7 @@
       </c>
       <c r="S57" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T57" s="0" t="inlineStr">
@@ -7424,7 +7424,7 @@
       </c>
       <c r="S58" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T58" s="0" t="inlineStr">
@@ -7516,7 +7516,7 @@
       </c>
       <c r="S59" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T59" s="0" t="inlineStr">
@@ -7608,7 +7608,7 @@
       </c>
       <c r="S60" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T60" s="0" t="inlineStr">
@@ -7700,7 +7700,7 @@
       </c>
       <c r="S61" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T61" s="0" t="inlineStr">
@@ -7792,7 +7792,7 @@
       </c>
       <c r="S62" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T62" s="0" t="inlineStr">
@@ -7884,7 +7884,7 @@
       </c>
       <c r="S63" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T63" s="0" t="inlineStr">
@@ -7976,7 +7976,7 @@
       </c>
       <c r="S64" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T64" s="0" t="inlineStr">
@@ -8068,7 +8068,7 @@
       </c>
       <c r="S65" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T65" s="0" t="inlineStr">
@@ -8160,7 +8160,7 @@
       </c>
       <c r="S66" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T66" s="0" t="inlineStr">

--- a/Oaky Creek Coal Mine, Australia, M0085.xlsx
+++ b/Oaky Creek Coal Mine, Australia, M0085.xlsx
@@ -432,7 +432,7 @@
     <row r="2" ht="15.75" customHeight="1" s="12">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Version: mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>Version: mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="H2" s="2" t="n"/>
@@ -538,7 +538,7 @@
     <row r="6" ht="15.75" customHeight="1" s="12">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Oaky Creek Coal Mine, Australia, M0085, version 'mines - January 30 (built on February 02 2026 12.49.33 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
+          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Oaky Creek Coal Mine, Australia, M0085, version 'mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
         </is>
       </c>
       <c r="H6" s="2" t="n"/>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="S2" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T2" s="0" t="inlineStr">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="S3" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T3" s="0" t="inlineStr">
@@ -2456,7 +2456,7 @@
       </c>
       <c r="S4" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T4" s="0" t="inlineStr">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="S5" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T5" s="0" t="inlineStr">
@@ -2640,7 +2640,7 @@
       </c>
       <c r="S6" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T6" s="0" t="inlineStr">
@@ -2732,7 +2732,7 @@
       </c>
       <c r="S7" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T7" s="0" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="S8" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T8" s="0" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="S9" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T9" s="0" t="inlineStr">
@@ -3008,7 +3008,7 @@
       </c>
       <c r="S10" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T10" s="0" t="inlineStr">
@@ -3100,7 +3100,7 @@
       </c>
       <c r="S11" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T11" s="0" t="inlineStr">
@@ -3192,7 +3192,7 @@
       </c>
       <c r="S12" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T12" s="0" t="inlineStr">
@@ -3284,7 +3284,7 @@
       </c>
       <c r="S13" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T13" s="0" t="inlineStr">
@@ -3376,7 +3376,7 @@
       </c>
       <c r="S14" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T14" s="0" t="inlineStr">
@@ -3468,7 +3468,7 @@
       </c>
       <c r="S15" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T15" s="0" t="inlineStr">
@@ -3560,7 +3560,7 @@
       </c>
       <c r="S16" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T16" s="0" t="inlineStr">
@@ -3652,7 +3652,7 @@
       </c>
       <c r="S17" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T17" s="0" t="inlineStr">
@@ -3744,7 +3744,7 @@
       </c>
       <c r="S18" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T18" s="0" t="inlineStr">
@@ -3836,7 +3836,7 @@
       </c>
       <c r="S19" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T19" s="0" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="S20" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T20" s="0" t="inlineStr">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="S21" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T21" s="0" t="inlineStr">
@@ -4112,7 +4112,7 @@
       </c>
       <c r="S22" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T22" s="0" t="inlineStr">
@@ -4204,7 +4204,7 @@
       </c>
       <c r="S23" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T23" s="0" t="inlineStr">
@@ -4296,7 +4296,7 @@
       </c>
       <c r="S24" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T24" s="0" t="inlineStr">
@@ -4388,7 +4388,7 @@
       </c>
       <c r="S25" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T25" s="0" t="inlineStr">
@@ -4480,7 +4480,7 @@
       </c>
       <c r="S26" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T26" s="0" t="inlineStr">
@@ -4572,7 +4572,7 @@
       </c>
       <c r="S27" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T27" s="0" t="inlineStr">
@@ -4664,7 +4664,7 @@
       </c>
       <c r="S28" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T28" s="0" t="inlineStr">
@@ -4756,7 +4756,7 @@
       </c>
       <c r="S29" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T29" s="0" t="inlineStr">
@@ -4848,7 +4848,7 @@
       </c>
       <c r="S30" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T30" s="0" t="inlineStr">
@@ -4940,7 +4940,7 @@
       </c>
       <c r="S31" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T31" s="0" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="S32" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T32" s="0" t="inlineStr">
@@ -5124,7 +5124,7 @@
       </c>
       <c r="S33" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T33" s="0" t="inlineStr">
@@ -5216,7 +5216,7 @@
       </c>
       <c r="S34" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T34" s="0" t="inlineStr">
@@ -5308,7 +5308,7 @@
       </c>
       <c r="S35" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T35" s="0" t="inlineStr">
@@ -5400,7 +5400,7 @@
       </c>
       <c r="S36" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T36" s="0" t="inlineStr">
@@ -5492,7 +5492,7 @@
       </c>
       <c r="S37" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T37" s="0" t="inlineStr">
@@ -5584,7 +5584,7 @@
       </c>
       <c r="S38" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T38" s="0" t="inlineStr">
@@ -5676,7 +5676,7 @@
       </c>
       <c r="S39" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T39" s="0" t="inlineStr">
@@ -5768,7 +5768,7 @@
       </c>
       <c r="S40" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T40" s="0" t="inlineStr">
@@ -5860,7 +5860,7 @@
       </c>
       <c r="S41" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T41" s="0" t="inlineStr">
@@ -5952,7 +5952,7 @@
       </c>
       <c r="S42" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T42" s="0" t="inlineStr">
@@ -6044,7 +6044,7 @@
       </c>
       <c r="S43" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T43" s="0" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="S44" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T44" s="0" t="inlineStr">
@@ -6228,7 +6228,7 @@
       </c>
       <c r="S45" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T45" s="0" t="inlineStr">
@@ -6320,7 +6320,7 @@
       </c>
       <c r="S46" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T46" s="0" t="inlineStr">
@@ -6412,7 +6412,7 @@
       </c>
       <c r="S47" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T47" s="0" t="inlineStr">
@@ -6504,7 +6504,7 @@
       </c>
       <c r="S48" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T48" s="0" t="inlineStr">
@@ -6596,7 +6596,7 @@
       </c>
       <c r="S49" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T49" s="0" t="inlineStr">
@@ -6688,7 +6688,7 @@
       </c>
       <c r="S50" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T50" s="0" t="inlineStr">
@@ -6780,7 +6780,7 @@
       </c>
       <c r="S51" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T51" s="0" t="inlineStr">
@@ -6872,7 +6872,7 @@
       </c>
       <c r="S52" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T52" s="0" t="inlineStr">
@@ -6964,7 +6964,7 @@
       </c>
       <c r="S53" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T53" s="0" t="inlineStr">
@@ -7056,7 +7056,7 @@
       </c>
       <c r="S54" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T54" s="0" t="inlineStr">
@@ -7148,7 +7148,7 @@
       </c>
       <c r="S55" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T55" s="0" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="S56" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T56" s="0" t="inlineStr">
@@ -7332,7 +7332,7 @@
       </c>
       <c r="S57" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T57" s="0" t="inlineStr">
@@ -7424,7 +7424,7 @@
       </c>
       <c r="S58" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T58" s="0" t="inlineStr">
@@ -7516,7 +7516,7 @@
       </c>
       <c r="S59" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T59" s="0" t="inlineStr">
@@ -7608,7 +7608,7 @@
       </c>
       <c r="S60" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T60" s="0" t="inlineStr">
@@ -7700,7 +7700,7 @@
       </c>
       <c r="S61" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T61" s="0" t="inlineStr">
@@ -7792,7 +7792,7 @@
       </c>
       <c r="S62" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T62" s="0" t="inlineStr">
@@ -7884,7 +7884,7 @@
       </c>
       <c r="S63" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T63" s="0" t="inlineStr">
@@ -7976,7 +7976,7 @@
       </c>
       <c r="S64" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T64" s="0" t="inlineStr">
@@ -8068,7 +8068,7 @@
       </c>
       <c r="S65" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T65" s="0" t="inlineStr">
@@ -8160,7 +8160,7 @@
       </c>
       <c r="S66" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T66" s="0" t="inlineStr">

--- a/Oaky Creek Coal Mine, Australia, M0085.xlsx
+++ b/Oaky Creek Coal Mine, Australia, M0085.xlsx
@@ -432,7 +432,7 @@
     <row r="2" ht="15.75" customHeight="1" s="12">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Version: mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Version: Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="H2" s="2" t="n"/>
@@ -538,7 +538,7 @@
     <row r="6" ht="15.75" customHeight="1" s="12">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Oaky Creek Coal Mine, Australia, M0085, version 'mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
+          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Oaky Creek Coal Mine, Australia, M0085, version 'Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
         </is>
       </c>
       <c r="H6" s="2" t="n"/>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="S2" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T2" s="0" t="inlineStr">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="S3" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T3" s="0" t="inlineStr">
@@ -2456,7 +2456,7 @@
       </c>
       <c r="S4" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T4" s="0" t="inlineStr">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="S5" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T5" s="0" t="inlineStr">
@@ -2640,7 +2640,7 @@
       </c>
       <c r="S6" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T6" s="0" t="inlineStr">
@@ -2732,7 +2732,7 @@
       </c>
       <c r="S7" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T7" s="0" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="S8" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T8" s="0" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="S9" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T9" s="0" t="inlineStr">
@@ -3008,7 +3008,7 @@
       </c>
       <c r="S10" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T10" s="0" t="inlineStr">
@@ -3100,7 +3100,7 @@
       </c>
       <c r="S11" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T11" s="0" t="inlineStr">
@@ -3192,7 +3192,7 @@
       </c>
       <c r="S12" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T12" s="0" t="inlineStr">
@@ -3284,7 +3284,7 @@
       </c>
       <c r="S13" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T13" s="0" t="inlineStr">
@@ -3376,7 +3376,7 @@
       </c>
       <c r="S14" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T14" s="0" t="inlineStr">
@@ -3468,7 +3468,7 @@
       </c>
       <c r="S15" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T15" s="0" t="inlineStr">
@@ -3560,7 +3560,7 @@
       </c>
       <c r="S16" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T16" s="0" t="inlineStr">
@@ -3652,7 +3652,7 @@
       </c>
       <c r="S17" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T17" s="0" t="inlineStr">
@@ -3744,7 +3744,7 @@
       </c>
       <c r="S18" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T18" s="0" t="inlineStr">
@@ -3836,7 +3836,7 @@
       </c>
       <c r="S19" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T19" s="0" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="S20" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T20" s="0" t="inlineStr">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="S21" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T21" s="0" t="inlineStr">
@@ -4112,7 +4112,7 @@
       </c>
       <c r="S22" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T22" s="0" t="inlineStr">
@@ -4204,7 +4204,7 @@
       </c>
       <c r="S23" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T23" s="0" t="inlineStr">
@@ -4296,7 +4296,7 @@
       </c>
       <c r="S24" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T24" s="0" t="inlineStr">
@@ -4388,7 +4388,7 @@
       </c>
       <c r="S25" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T25" s="0" t="inlineStr">
@@ -4480,7 +4480,7 @@
       </c>
       <c r="S26" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T26" s="0" t="inlineStr">
@@ -4572,7 +4572,7 @@
       </c>
       <c r="S27" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T27" s="0" t="inlineStr">
@@ -4664,7 +4664,7 @@
       </c>
       <c r="S28" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T28" s="0" t="inlineStr">
@@ -4756,7 +4756,7 @@
       </c>
       <c r="S29" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T29" s="0" t="inlineStr">
@@ -4848,7 +4848,7 @@
       </c>
       <c r="S30" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T30" s="0" t="inlineStr">
@@ -4940,7 +4940,7 @@
       </c>
       <c r="S31" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T31" s="0" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="S32" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T32" s="0" t="inlineStr">
@@ -5124,7 +5124,7 @@
       </c>
       <c r="S33" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T33" s="0" t="inlineStr">
@@ -5216,7 +5216,7 @@
       </c>
       <c r="S34" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T34" s="0" t="inlineStr">
@@ -5308,7 +5308,7 @@
       </c>
       <c r="S35" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T35" s="0" t="inlineStr">
@@ -5400,7 +5400,7 @@
       </c>
       <c r="S36" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T36" s="0" t="inlineStr">
@@ -5492,7 +5492,7 @@
       </c>
       <c r="S37" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T37" s="0" t="inlineStr">
@@ -5584,7 +5584,7 @@
       </c>
       <c r="S38" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T38" s="0" t="inlineStr">
@@ -5676,7 +5676,7 @@
       </c>
       <c r="S39" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T39" s="0" t="inlineStr">
@@ -5768,7 +5768,7 @@
       </c>
       <c r="S40" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T40" s="0" t="inlineStr">
@@ -5860,7 +5860,7 @@
       </c>
       <c r="S41" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T41" s="0" t="inlineStr">
@@ -5952,7 +5952,7 @@
       </c>
       <c r="S42" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T42" s="0" t="inlineStr">
@@ -6044,7 +6044,7 @@
       </c>
       <c r="S43" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T43" s="0" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="S44" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T44" s="0" t="inlineStr">
@@ -6228,7 +6228,7 @@
       </c>
       <c r="S45" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T45" s="0" t="inlineStr">
@@ -6320,7 +6320,7 @@
       </c>
       <c r="S46" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T46" s="0" t="inlineStr">
@@ -6412,7 +6412,7 @@
       </c>
       <c r="S47" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T47" s="0" t="inlineStr">
@@ -6504,7 +6504,7 @@
       </c>
       <c r="S48" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T48" s="0" t="inlineStr">
@@ -6596,7 +6596,7 @@
       </c>
       <c r="S49" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T49" s="0" t="inlineStr">
@@ -6688,7 +6688,7 @@
       </c>
       <c r="S50" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T50" s="0" t="inlineStr">
@@ -6780,7 +6780,7 @@
       </c>
       <c r="S51" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T51" s="0" t="inlineStr">
@@ -6872,7 +6872,7 @@
       </c>
       <c r="S52" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T52" s="0" t="inlineStr">
@@ -6964,7 +6964,7 @@
       </c>
       <c r="S53" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T53" s="0" t="inlineStr">
@@ -7056,7 +7056,7 @@
       </c>
       <c r="S54" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T54" s="0" t="inlineStr">
@@ -7148,7 +7148,7 @@
       </c>
       <c r="S55" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T55" s="0" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="S56" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T56" s="0" t="inlineStr">
@@ -7332,7 +7332,7 @@
       </c>
       <c r="S57" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T57" s="0" t="inlineStr">
@@ -7424,7 +7424,7 @@
       </c>
       <c r="S58" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T58" s="0" t="inlineStr">
@@ -7516,7 +7516,7 @@
       </c>
       <c r="S59" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T59" s="0" t="inlineStr">
@@ -7608,7 +7608,7 @@
       </c>
       <c r="S60" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T60" s="0" t="inlineStr">
@@ -7700,7 +7700,7 @@
       </c>
       <c r="S61" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T61" s="0" t="inlineStr">
@@ -7792,7 +7792,7 @@
       </c>
       <c r="S62" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T62" s="0" t="inlineStr">
@@ -7884,7 +7884,7 @@
       </c>
       <c r="S63" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T63" s="0" t="inlineStr">
@@ -7976,7 +7976,7 @@
       </c>
       <c r="S64" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T64" s="0" t="inlineStr">
@@ -8068,7 +8068,7 @@
       </c>
       <c r="S65" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T65" s="0" t="inlineStr">
@@ -8160,7 +8160,7 @@
       </c>
       <c r="S66" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T66" s="0" t="inlineStr">

--- a/Oaky Creek Coal Mine, Australia, M0085.xlsx
+++ b/Oaky Creek Coal Mine, Australia, M0085.xlsx
@@ -432,7 +432,7 @@
     <row r="2" ht="15.75" customHeight="1" s="12">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Version: Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Version: Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="H2" s="2" t="n"/>
@@ -538,7 +538,7 @@
     <row r="6" ht="15.75" customHeight="1" s="12">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Oaky Creek Coal Mine, Australia, M0085, version 'Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
+          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Oaky Creek Coal Mine, Australia, M0085, version 'Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
         </is>
       </c>
       <c r="H6" s="2" t="n"/>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="S2" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T2" s="0" t="inlineStr">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="S3" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T3" s="0" t="inlineStr">
@@ -2456,7 +2456,7 @@
       </c>
       <c r="S4" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T4" s="0" t="inlineStr">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="S5" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T5" s="0" t="inlineStr">
@@ -2640,7 +2640,7 @@
       </c>
       <c r="S6" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T6" s="0" t="inlineStr">
@@ -2732,7 +2732,7 @@
       </c>
       <c r="S7" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T7" s="0" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="S8" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T8" s="0" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="S9" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T9" s="0" t="inlineStr">
@@ -3008,7 +3008,7 @@
       </c>
       <c r="S10" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T10" s="0" t="inlineStr">
@@ -3100,7 +3100,7 @@
       </c>
       <c r="S11" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T11" s="0" t="inlineStr">
@@ -3192,7 +3192,7 @@
       </c>
       <c r="S12" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T12" s="0" t="inlineStr">
@@ -3284,7 +3284,7 @@
       </c>
       <c r="S13" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T13" s="0" t="inlineStr">
@@ -3376,7 +3376,7 @@
       </c>
       <c r="S14" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T14" s="0" t="inlineStr">
@@ -3468,7 +3468,7 @@
       </c>
       <c r="S15" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T15" s="0" t="inlineStr">
@@ -3560,7 +3560,7 @@
       </c>
       <c r="S16" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T16" s="0" t="inlineStr">
@@ -3652,7 +3652,7 @@
       </c>
       <c r="S17" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T17" s="0" t="inlineStr">
@@ -3744,7 +3744,7 @@
       </c>
       <c r="S18" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T18" s="0" t="inlineStr">
@@ -3836,7 +3836,7 @@
       </c>
       <c r="S19" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T19" s="0" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="S20" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T20" s="0" t="inlineStr">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="S21" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T21" s="0" t="inlineStr">
@@ -4112,7 +4112,7 @@
       </c>
       <c r="S22" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T22" s="0" t="inlineStr">
@@ -4204,7 +4204,7 @@
       </c>
       <c r="S23" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T23" s="0" t="inlineStr">
@@ -4296,7 +4296,7 @@
       </c>
       <c r="S24" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T24" s="0" t="inlineStr">
@@ -4388,7 +4388,7 @@
       </c>
       <c r="S25" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T25" s="0" t="inlineStr">
@@ -4480,7 +4480,7 @@
       </c>
       <c r="S26" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T26" s="0" t="inlineStr">
@@ -4572,7 +4572,7 @@
       </c>
       <c r="S27" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T27" s="0" t="inlineStr">
@@ -4664,7 +4664,7 @@
       </c>
       <c r="S28" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T28" s="0" t="inlineStr">
@@ -4756,7 +4756,7 @@
       </c>
       <c r="S29" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T29" s="0" t="inlineStr">
@@ -4848,7 +4848,7 @@
       </c>
       <c r="S30" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T30" s="0" t="inlineStr">
@@ -4940,7 +4940,7 @@
       </c>
       <c r="S31" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T31" s="0" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="S32" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T32" s="0" t="inlineStr">
@@ -5124,7 +5124,7 @@
       </c>
       <c r="S33" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T33" s="0" t="inlineStr">
@@ -5216,7 +5216,7 @@
       </c>
       <c r="S34" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T34" s="0" t="inlineStr">
@@ -5308,7 +5308,7 @@
       </c>
       <c r="S35" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T35" s="0" t="inlineStr">
@@ -5400,7 +5400,7 @@
       </c>
       <c r="S36" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T36" s="0" t="inlineStr">
@@ -5492,7 +5492,7 @@
       </c>
       <c r="S37" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T37" s="0" t="inlineStr">
@@ -5584,7 +5584,7 @@
       </c>
       <c r="S38" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T38" s="0" t="inlineStr">
@@ -5676,7 +5676,7 @@
       </c>
       <c r="S39" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T39" s="0" t="inlineStr">
@@ -5768,7 +5768,7 @@
       </c>
       <c r="S40" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T40" s="0" t="inlineStr">
@@ -5860,7 +5860,7 @@
       </c>
       <c r="S41" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T41" s="0" t="inlineStr">
@@ -5952,7 +5952,7 @@
       </c>
       <c r="S42" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T42" s="0" t="inlineStr">
@@ -6044,7 +6044,7 @@
       </c>
       <c r="S43" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T43" s="0" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="S44" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T44" s="0" t="inlineStr">
@@ -6228,7 +6228,7 @@
       </c>
       <c r="S45" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T45" s="0" t="inlineStr">
@@ -6320,7 +6320,7 @@
       </c>
       <c r="S46" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T46" s="0" t="inlineStr">
@@ -6412,7 +6412,7 @@
       </c>
       <c r="S47" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T47" s="0" t="inlineStr">
@@ -6504,7 +6504,7 @@
       </c>
       <c r="S48" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T48" s="0" t="inlineStr">
@@ -6596,7 +6596,7 @@
       </c>
       <c r="S49" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T49" s="0" t="inlineStr">
@@ -6688,7 +6688,7 @@
       </c>
       <c r="S50" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T50" s="0" t="inlineStr">
@@ -6780,7 +6780,7 @@
       </c>
       <c r="S51" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T51" s="0" t="inlineStr">
@@ -6872,7 +6872,7 @@
       </c>
       <c r="S52" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T52" s="0" t="inlineStr">
@@ -6964,7 +6964,7 @@
       </c>
       <c r="S53" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T53" s="0" t="inlineStr">
@@ -7056,7 +7056,7 @@
       </c>
       <c r="S54" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T54" s="0" t="inlineStr">
@@ -7148,7 +7148,7 @@
       </c>
       <c r="S55" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T55" s="0" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="S56" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T56" s="0" t="inlineStr">
@@ -7332,7 +7332,7 @@
       </c>
       <c r="S57" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T57" s="0" t="inlineStr">
@@ -7424,7 +7424,7 @@
       </c>
       <c r="S58" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T58" s="0" t="inlineStr">
@@ -7516,7 +7516,7 @@
       </c>
       <c r="S59" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T59" s="0" t="inlineStr">
@@ -7608,7 +7608,7 @@
       </c>
       <c r="S60" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T60" s="0" t="inlineStr">
@@ -7700,7 +7700,7 @@
       </c>
       <c r="S61" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T61" s="0" t="inlineStr">
@@ -7792,7 +7792,7 @@
       </c>
       <c r="S62" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T62" s="0" t="inlineStr">
@@ -7884,7 +7884,7 @@
       </c>
       <c r="S63" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T63" s="0" t="inlineStr">
@@ -7976,7 +7976,7 @@
       </c>
       <c r="S64" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T64" s="0" t="inlineStr">
@@ -8068,7 +8068,7 @@
       </c>
       <c r="S65" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T65" s="0" t="inlineStr">
@@ -8160,7 +8160,7 @@
       </c>
       <c r="S66" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T66" s="0" t="inlineStr">
